--- a/Week_02/GC与堆内存总结.xlsx
+++ b/Week_02/GC与堆内存总结.xlsx
@@ -111,6 +111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> -XX:+UseG1GC 开启G1垃圾回收器
  </t>
     </r>
@@ -125,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t>低延迟，可设置预期的停顿时间。</t>
+    <t>低延迟，可设置预期的停顿时间。在大内存的机器考虑使用</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -194,31 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -240,21 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,12 +240,72 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -279,46 +314,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,31 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,145 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +567,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,63 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,142 +656,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,16 +801,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -822,12 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1203,7 +1200,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1221,125 +1218,125 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="59" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="76" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="73" customHeight="1" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Week_02/GC与堆内存总结.xlsx
+++ b/Week_02/GC与堆内存总结.xlsx
@@ -89,7 +89,8 @@
 老年代：标记-清除，不做整理而是采用空闲列表管理，在标记清除阶段和应用线程一起并发执行</t>
   </si>
   <si>
-    <t>-XX:+UseConcMarkSweepGC 开启CMS垃圾回收器，默认并发线程数是CPU核数的1/4</t>
+    <t xml:space="preserve"> -XX:+UseConcMarkSweepGC 开启CMS垃圾回收器，默认并发线程数是CPU核数的1/4
+ -XX:ConcGCThreads=N 指定并发的线程数</t>
   </si>
   <si>
     <t>由于GC大部分时间都是跟应用线程并发运行，CMS的卡顿时间短，延迟小</t>
@@ -139,8 +140,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -200,6 +201,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -215,8 +224,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,18 +294,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,77 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,25 +346,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,79 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,73 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +568,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,17 +627,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,159 +652,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1200,7 +1201,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
